--- a/team_specific_matrix/Utah Valley_A.xlsx
+++ b/team_specific_matrix/Utah Valley_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1808118081180812</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="C2">
-        <v>0.5608856088560885</v>
+        <v>0.5440251572327044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007380073800738007</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003690036900369004</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="P2">
-        <v>0.1254612546125461</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1217712177121771</v>
+        <v>0.1352201257861635</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02564102564102564</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="C3">
-        <v>0.02564102564102564</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01923076923076923</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7051282051282052</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2243589743589744</v>
+        <v>0.2090395480225989</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0267379679144385</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0748663101604278</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2459893048128342</v>
+        <v>0.2420091324200913</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0160427807486631</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1871657754010695</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R6">
-        <v>0.0481283422459893</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="S6">
-        <v>0.3422459893048128</v>
+        <v>0.3378995433789954</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1258278145695364</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01986754966887417</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05298013245033113</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1721854304635762</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01986754966887417</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.119205298013245</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="R7">
-        <v>0.04635761589403974</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S7">
-        <v>0.4437086092715232</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1008902077151335</v>
+        <v>0.1026894865525672</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01186943620178042</v>
+        <v>0.01711491442542787</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05637982195845697</v>
+        <v>0.05623471882640587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1127596439169139</v>
+        <v>0.117359413202934</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02967359050445104</v>
+        <v>0.02689486552567237</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2344213649851632</v>
+        <v>0.2200488997555012</v>
       </c>
       <c r="R8">
-        <v>0.05637982195845697</v>
+        <v>0.05378973105134474</v>
       </c>
       <c r="S8">
-        <v>0.3976261127596439</v>
+        <v>0.4058679706601467</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1142857142857143</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06428571428571428</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1142857142857143</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04285714285714286</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714285714285714</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="R9">
-        <v>0.07142857142857142</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="S9">
-        <v>0.4071428571428571</v>
+        <v>0.4331210191082803</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1296121097445601</v>
+        <v>0.1271860095389507</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02081362346263009</v>
+        <v>0.02066772655007949</v>
       </c>
       <c r="E10">
-        <v>0.000946073793755913</v>
+        <v>0.001589825119236884</v>
       </c>
       <c r="F10">
-        <v>0.06717123935666983</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1229895931882687</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01229895931882687</v>
+        <v>0.01271860095389507</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2194891201513718</v>
+        <v>0.2241653418124006</v>
       </c>
       <c r="R10">
-        <v>0.05960264900662252</v>
+        <v>0.05564387917329094</v>
       </c>
       <c r="S10">
-        <v>0.3670766319772942</v>
+        <v>0.3688394276629571</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01140684410646388</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G11">
-        <v>0.1330798479087452</v>
+        <v>0.1353135313531353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1064638783269962</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="K11">
-        <v>0.2091254752851711</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L11">
-        <v>0.5247148288973384</v>
+        <v>0.5313531353135313</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01520912547528517</v>
+        <v>0.0165016501650165</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6808510638297872</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2482269503546099</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="K12">
-        <v>0.02836879432624113</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="L12">
-        <v>0.02127659574468085</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02127659574468085</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5813953488372093</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3023255813953488</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1162790697674419</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05027932960893855</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2402234636871508</v>
+        <v>0.2186046511627907</v>
       </c>
       <c r="I15">
-        <v>0.0446927374301676</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="J15">
-        <v>0.3016759776536313</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="K15">
-        <v>0.06145251396648044</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0111731843575419</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0446927374301676</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2458100558659218</v>
+        <v>0.2279069767441861</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005988023952095809</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1676646706586826</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="I16">
-        <v>0.0658682634730539</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="J16">
-        <v>0.3233532934131736</v>
+        <v>0.3455497382198953</v>
       </c>
       <c r="K16">
-        <v>0.1377245508982036</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03592814371257485</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04790419161676647</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2155688622754491</v>
+        <v>0.193717277486911</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01558441558441558</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1506493506493506</v>
+        <v>0.1601731601731602</v>
       </c>
       <c r="I17">
-        <v>0.07532467532467532</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J17">
-        <v>0.4545454545454545</v>
+        <v>0.4632034632034632</v>
       </c>
       <c r="K17">
-        <v>0.1012987012987013</v>
+        <v>0.08874458874458875</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02337662337662338</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="N17">
-        <v>0.002597402597402597</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="O17">
-        <v>0.05974025974025974</v>
+        <v>0.06277056277056277</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01869158878504673</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1495327102803738</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I18">
-        <v>0.05607476635514019</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="J18">
-        <v>0.4953271028037383</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.102803738317757</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009345794392523364</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07476635514018691</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09345794392523364</v>
+        <v>0.08870967741935484</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02044790652385589</v>
+        <v>0.02218570254724733</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1850048685491723</v>
+        <v>0.1922760887428102</v>
       </c>
       <c r="I19">
-        <v>0.08081791626095423</v>
+        <v>0.07641741988496302</v>
       </c>
       <c r="J19">
-        <v>0.385589094449854</v>
+        <v>0.3853738701725555</v>
       </c>
       <c r="K19">
-        <v>0.11587147030185</v>
+        <v>0.1199671322925226</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02629016553067186</v>
+        <v>0.02465078060805259</v>
       </c>
       <c r="N19">
-        <v>0.0009737098344693282</v>
+        <v>0.0008216926869350862</v>
       </c>
       <c r="O19">
-        <v>0.0759493670886076</v>
+        <v>0.07559572719802794</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1090555014605648</v>
+        <v>0.1027115858668858</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah Valley_A.xlsx
+++ b/team_specific_matrix/Utah Valley_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1886792452830189</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5440251572327044</v>
+        <v>0.5386904761904762</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009433962264150943</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003144654088050315</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="P2">
-        <v>0.119496855345912</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1352201257861635</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02259887005649718</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C3">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01694915254237288</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7175141242937854</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2090395480225989</v>
+        <v>0.2150537634408602</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6444444444444445</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3555555555555556</v>
+        <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0593607305936073</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0319634703196347</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0684931506849315</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2420091324200913</v>
+        <v>0.2297872340425532</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0136986301369863</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1917808219178082</v>
+        <v>0.1829787234042553</v>
       </c>
       <c r="R6">
-        <v>0.0547945205479452</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="S6">
-        <v>0.3378995433789954</v>
+        <v>0.3446808510638298</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1222222222222222</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1555555555555556</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02222222222222222</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1277777777777778</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="R7">
-        <v>0.05555555555555555</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="S7">
-        <v>0.45</v>
+        <v>0.4540816326530612</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1026894865525672</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01711491442542787</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05623471882640587</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.117359413202934</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02689486552567237</v>
+        <v>0.02546296296296296</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2200488997555012</v>
+        <v>0.224537037037037</v>
       </c>
       <c r="R8">
-        <v>0.05378973105134474</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="S8">
-        <v>0.4058679706601467</v>
+        <v>0.4027777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1019108280254777</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01273885350318471</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05732484076433121</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1146496815286624</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03821656050955414</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1719745222929936</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="R9">
-        <v>0.07006369426751592</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S9">
-        <v>0.4331210191082803</v>
+        <v>0.4195402298850575</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1271860095389507</v>
+        <v>0.122962962962963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02066772655007949</v>
+        <v>0.02074074074074074</v>
       </c>
       <c r="E10">
-        <v>0.001589825119236884</v>
+        <v>0.001481481481481481</v>
       </c>
       <c r="F10">
-        <v>0.06756756756756757</v>
+        <v>0.06962962962962962</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1216216216216216</v>
+        <v>0.12</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01271860095389507</v>
+        <v>0.01259259259259259</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2241653418124006</v>
+        <v>0.2259259259259259</v>
       </c>
       <c r="R10">
-        <v>0.05564387917329094</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S10">
-        <v>0.3688394276629571</v>
+        <v>0.3711111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.009900990099009901</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="G11">
-        <v>0.1353135313531353</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09900990099009901</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="K11">
-        <v>0.2079207920792079</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="L11">
-        <v>0.5313531353135313</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0165016501650165</v>
+        <v>0.0154320987654321</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7090909090909091</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2242424242424242</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K12">
-        <v>0.02424242424242424</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="L12">
-        <v>0.02424242424242424</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01818181818181818</v>
+        <v>0.01648351648351648</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5510204081632653</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3469387755102041</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1020408163265306</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05116279069767442</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2186046511627907</v>
+        <v>0.2042553191489362</v>
       </c>
       <c r="I15">
-        <v>0.05116279069767442</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="J15">
-        <v>0.3255813953488372</v>
+        <v>0.3361702127659574</v>
       </c>
       <c r="K15">
-        <v>0.05581395348837209</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0186046511627907</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05116279069767442</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2279069767441861</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005235602094240838</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1727748691099476</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="I16">
-        <v>0.07329842931937172</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="J16">
-        <v>0.3455497382198953</v>
+        <v>0.3517587939698493</v>
       </c>
       <c r="K16">
-        <v>0.1256544502617801</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03141361256544502</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05235602094240838</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.193717277486911</v>
+        <v>0.185929648241206</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01948051948051948</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1601731601731602</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="I17">
-        <v>0.06493506493506493</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="J17">
-        <v>0.4632034632034632</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="K17">
-        <v>0.08874458874458875</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02164502164502164</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="N17">
-        <v>0.002164502164502165</v>
+        <v>0.002008032128514056</v>
       </c>
       <c r="O17">
-        <v>0.06277056277056277</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1168831168831169</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01612903225806452</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1612903225806452</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="I18">
-        <v>0.0564516129032258</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="K18">
-        <v>0.09677419354838709</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008064516129032258</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07258064516129033</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08870967741935484</v>
+        <v>0.0948905109489051</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02218570254724733</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1922760887428102</v>
+        <v>0.1902215431627196</v>
       </c>
       <c r="I19">
-        <v>0.07641741988496302</v>
+        <v>0.07944996180290298</v>
       </c>
       <c r="J19">
-        <v>0.3853738701725555</v>
+        <v>0.387318563789152</v>
       </c>
       <c r="K19">
-        <v>0.1199671322925226</v>
+        <v>0.1184110007639419</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02465078060805259</v>
+        <v>0.02291825821237586</v>
       </c>
       <c r="N19">
-        <v>0.0008216926869350862</v>
+        <v>0.0007639419404125286</v>
       </c>
       <c r="O19">
-        <v>0.07559572719802794</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1027115858668858</v>
+        <v>0.1016042780748663</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah Valley_A.xlsx
+++ b/team_specific_matrix/Utah Valley_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C2">
-        <v>0.5386904761904762</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008928571428571428</v>
+        <v>0.008571428571428572</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002976190476190476</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="P2">
-        <v>0.1160714285714286</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1458333333333333</v>
+        <v>0.1485714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02150537634408602</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02150537634408602</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7096774193548387</v>
+        <v>0.6994818652849741</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2150537634408602</v>
+        <v>0.227979274611399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6458333333333334</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3541666666666667</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06382978723404255</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02978723404255319</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07234042553191489</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2297872340425532</v>
+        <v>0.2304526748971193</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01276595744680851</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1829787234042553</v>
+        <v>0.1810699588477366</v>
       </c>
       <c r="R6">
-        <v>0.06382978723404255</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="S6">
-        <v>0.3446808510638298</v>
+        <v>0.3415637860082305</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1224489795918367</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04591836734693878</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1479591836734694</v>
+        <v>0.145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02551020408163265</v>
+        <v>0.03</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1224489795918367</v>
+        <v>0.125</v>
       </c>
       <c r="R7">
-        <v>0.06122448979591837</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.4540816326530612</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1064814814814815</v>
+        <v>0.111358574610245</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0162037037037037</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1180555555555556</v>
+        <v>0.1202672605790646</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02546296296296296</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.224537037037037</v>
+        <v>0.22271714922049</v>
       </c>
       <c r="R8">
-        <v>0.05092592592592592</v>
+        <v>0.04899777282850779</v>
       </c>
       <c r="S8">
-        <v>0.4027777777777778</v>
+        <v>0.4008908685968819</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09195402298850575</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01724137931034483</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06321839080459771</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1149425287356322</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1781609195402299</v>
+        <v>0.1741573033707865</v>
       </c>
       <c r="R9">
-        <v>0.08045977011494253</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S9">
-        <v>0.4195402298850575</v>
+        <v>0.4269662921348314</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.122962962962963</v>
+        <v>0.1226080793763288</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02074074074074074</v>
+        <v>0.02055279943302622</v>
       </c>
       <c r="E10">
-        <v>0.001481481481481481</v>
+        <v>0.001417434443656981</v>
       </c>
       <c r="F10">
-        <v>0.06962962962962962</v>
+        <v>0.06732813607370659</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.12</v>
+        <v>0.1254429482636428</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01259259259259259</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2259259259259259</v>
+        <v>0.2303330970942594</v>
       </c>
       <c r="R10">
-        <v>0.05555555555555555</v>
+        <v>0.05315379163713678</v>
       </c>
       <c r="S10">
-        <v>0.3711111111111111</v>
+        <v>0.367115520907158</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.009259259259259259</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="G11">
-        <v>0.1296296296296296</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09876543209876543</v>
+        <v>0.09785932721712538</v>
       </c>
       <c r="K11">
-        <v>0.2006172839506173</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="L11">
-        <v>0.5462962962962963</v>
+        <v>0.5504587155963303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0154320987654321</v>
+        <v>0.01529051987767584</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7252747252747253</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="K12">
-        <v>0.02197802197802198</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="L12">
-        <v>0.02197802197802198</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01648351648351648</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3529411764705883</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09803921568627451</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04680851063829787</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2042553191489362</v>
+        <v>0.2024793388429752</v>
       </c>
       <c r="I15">
-        <v>0.05531914893617021</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="J15">
-        <v>0.3361702127659574</v>
+        <v>0.3388429752066116</v>
       </c>
       <c r="K15">
-        <v>0.05531914893617021</v>
+        <v>0.05371900826446281</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02127659574468085</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04680851063829787</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2340425531914894</v>
+        <v>0.2355371900826446</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005025125628140704</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1658291457286432</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="I16">
-        <v>0.07537688442211055</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="J16">
-        <v>0.3517587939698493</v>
+        <v>0.3497536945812808</v>
       </c>
       <c r="K16">
-        <v>0.1306532663316583</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03517587939698492</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05025125628140704</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.185929648241206</v>
+        <v>0.1921182266009852</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01807228915662651</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1566265060240964</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="I17">
-        <v>0.06827309236947791</v>
+        <v>0.06704980842911877</v>
       </c>
       <c r="J17">
-        <v>0.463855421686747</v>
+        <v>0.4616858237547893</v>
       </c>
       <c r="K17">
-        <v>0.09236947791164658</v>
+        <v>0.09003831417624521</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02008032128514056</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N17">
-        <v>0.002008032128514056</v>
+        <v>0.001915708812260536</v>
       </c>
       <c r="O17">
-        <v>0.06425702811244979</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1144578313253012</v>
+        <v>0.1130268199233716</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0213903743315508</v>
+        <v>0.02060338484179544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1902215431627196</v>
+        <v>0.1905813097866078</v>
       </c>
       <c r="I19">
-        <v>0.07944996180290298</v>
+        <v>0.07799852832965416</v>
       </c>
       <c r="J19">
-        <v>0.387318563789152</v>
+        <v>0.3914643119941133</v>
       </c>
       <c r="K19">
-        <v>0.1184110007639419</v>
+        <v>0.1155261221486387</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02291825821237586</v>
+        <v>0.02281089036055924</v>
       </c>
       <c r="N19">
-        <v>0.0007639419404125286</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="O19">
-        <v>0.07792207792207792</v>
+        <v>0.07652685798381163</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1016042780748663</v>
+        <v>0.1037527593818985</v>
       </c>
     </row>
   </sheetData>
